--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World_Data_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC5A22-ACE4-4554-881B-E47BDECA83C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB503582-DD95-40B0-A640-D74A06113691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Trade balance</t>
+    <t>Trade</t>
   </si>
 </sst>
 </file>
@@ -25767,7 +25767,7 @@
   <dimension ref="A1:C911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
